--- a/pred_ohlcv/54_21/2020-01-16 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ELF ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>123778.3346121661</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>162167.004212166</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>284862.579012166</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>304182.647112166</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>304182.647112166</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>332641.079612166</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>320280.079612166</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>320280.079612166</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>276731.4277234782</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>212660.7068234782</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>721360.3777456756</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>695124.6440456756</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>709531.7128456756</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>713492.4319456756</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>741652.9156456756</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>736821.5457456756</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>624697.9122268126</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>622073.5654268125</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>609438.7303268125</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>728005.8711268124</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>707121.8903268124</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>659984.1350268124</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>972929.0151246353</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1030660.384173754</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>971962.0551737535</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>974771.7594737536</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>971407.0515737536</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>953913.8134737536</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>964663.5681737537</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>963000.5681737537</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>961862.5681737537</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>962225.2227737537</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>957930.4404737537</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>959661.8388737537</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>936919.0936737537</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>933346.5099737537</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>899046.6233737537</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>856421.2601737537</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>974592.1267737536</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 ELF ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ELF ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>162167.004212166</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>284862.579012166</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>304182.647112166</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>304182.647112166</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>332641.079612166</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>320280.079612166</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>320280.079612166</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>276731.4277234782</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>212660.7068234782</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>721360.3777456756</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>695124.6440456756</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>709531.7128456756</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>713492.4319456756</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>741652.9156456756</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>736821.5457456756</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>700276.1583456756</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>661807.0475456755</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>624697.9122268126</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>622073.5654268125</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>600233.0465268125</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>647960.6551268125</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>609438.7303268125</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>590511.3995268125</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>599095.1504268125</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>728005.8711268124</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>707121.8903268124</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>659984.1350268124</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>664719.8322268125</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>609582.0768268125</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>617118.4625268125</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>613069.2624268124</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1030660.384173754</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>983278.5373737535</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>989077.3190737535</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>974955.9947737536</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>974771.7594737536</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>977021.7594737536</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>971407.0515737536</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>953913.8134737536</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>964663.5681737537</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>963000.5681737537</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>961862.5681737537</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>962225.2227737537</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>957930.4404737537</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>959661.8388737537</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>936919.0936737537</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>933346.5099737537</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>933974.9044737538</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>929070.0482737537</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>899046.6233737537</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
